--- a/biology/Médecine/Léon_Mac-Auliffe/Léon_Mac-Auliffe.xlsx
+++ b/biology/Médecine/Léon_Mac-Auliffe/Léon_Mac-Auliffe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Mac-Auliffe</t>
+          <t>Léon_Mac-Auliffe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Mac-Auliffe, né le 29 février 1876 à Paris 13e et mort le 7 février 1937, est un médecin français. 
 Ancien élève de Claude Sigaud, il fonde en 1923 la Société des formes humaines ou Société de Morphologie humaine. Par ailleurs, il est plus tard directeur-adjoint du Laboratoire de psychologie pathologique à l'École pratique des hautes études de Paris. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Mac-Auliffe</t>
+          <t>Léon_Mac-Auliffe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Morphologie médicale, (avec Auguste Chaillou), Paris 1912
 Précis d'exploration externe du tube digestif, (avec Auguste Chaillou)
